--- a/Data/Output/Invalid Customer Data (08-02-2026).xlsx
+++ b/Data/Output/Invalid Customer Data (08-02-2026).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\RPA\231691N_Tan_Hng_Wu\Data\Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3C082CE-3F80-4230-8211-66075AD00461}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B31CC727-EDEC-4605-9B00-A6201EC7D5F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <x:bookViews>
-    <x:workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21840" firstSheet="0" activeTab="0" xr2:uid="{E57A2698-888E-474E-87E1-10DBC1B15C6C}"/>
+    <x:workbookView xWindow="-108" yWindow="-108" windowWidth="41496" windowHeight="17496" firstSheet="0" activeTab="0" xr2:uid="{E57A2698-888E-474E-87E1-10DBC1B15C6C}"/>
   </x:bookViews>
   <x:sheets>
     <x:sheet name="Customers" sheetId="1" r:id="rId1"/>
@@ -602,27 +602,27 @@
       <x:selection activeCell="N7" sqref="N7"/>
     </x:sheetView>
   </x:sheetViews>
-  <x:sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="20.1" customHeight="1" x14ac:dyDescent="0.25"/>
+  <x:sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="20.1" customHeight="1" x14ac:dyDescent="0.3"/>
   <x:cols>
-    <x:col min="1" max="1" width="21.855469" style="2" bestFit="1" customWidth="1"/>
-    <x:col min="2" max="2" width="4.285156" style="2" bestFit="1" customWidth="1"/>
-    <x:col min="3" max="3" width="7.710938" style="2" bestFit="1" customWidth="1"/>
-    <x:col min="4" max="4" width="14.140625" style="2" bestFit="1" customWidth="1"/>
+    <x:col min="1" max="1" width="21.886719" style="2" bestFit="1" customWidth="1"/>
+    <x:col min="2" max="2" width="4.332031" style="2" bestFit="1" customWidth="1"/>
+    <x:col min="3" max="3" width="7.664062" style="2" bestFit="1" customWidth="1"/>
+    <x:col min="4" max="4" width="14.109375" style="2" bestFit="1" customWidth="1"/>
     <x:col min="5" max="5" width="11" style="2" bestFit="1" customWidth="1"/>
-    <x:col min="6" max="6" width="16.710938" style="2" bestFit="1" customWidth="1"/>
-    <x:col min="7" max="7" width="7.140625" style="2" bestFit="1" customWidth="1"/>
-    <x:col min="8" max="8" width="5.855469" style="2" bestFit="1" customWidth="1"/>
-    <x:col min="9" max="9" width="10.570312" style="2" bestFit="1" customWidth="1"/>
-    <x:col min="10" max="10" width="11.425781" style="2" bestFit="1" customWidth="1"/>
-    <x:col min="11" max="11" width="20.285156" style="2" bestFit="1" customWidth="1"/>
-    <x:col min="12" max="12" width="21.710938" style="2" bestFit="1" customWidth="1"/>
-    <x:col min="13" max="13" width="22.425781" style="2" bestFit="1" customWidth="1"/>
-    <x:col min="14" max="14" width="15.855469" style="2" bestFit="1" customWidth="1"/>
-    <x:col min="15" max="15" width="31.570312" style="2" bestFit="1" customWidth="1"/>
-    <x:col min="16" max="16384" width="9.140625" style="2" customWidth="1"/>
+    <x:col min="6" max="6" width="16.664062" style="2" bestFit="1" customWidth="1"/>
+    <x:col min="7" max="7" width="7.109375" style="2" bestFit="1" customWidth="1"/>
+    <x:col min="8" max="8" width="5.886719" style="2" bestFit="1" customWidth="1"/>
+    <x:col min="9" max="9" width="10.554688" style="2" bestFit="1" customWidth="1"/>
+    <x:col min="10" max="10" width="11.441406" style="2" bestFit="1" customWidth="1"/>
+    <x:col min="11" max="11" width="25.777344" style="2" customWidth="1"/>
+    <x:col min="12" max="12" width="21.664062" style="2" bestFit="1" customWidth="1"/>
+    <x:col min="13" max="13" width="22.441406" style="2" bestFit="1" customWidth="1"/>
+    <x:col min="14" max="14" width="15.886719" style="2" bestFit="1" customWidth="1"/>
+    <x:col min="15" max="15" width="31.554688" style="2" bestFit="1" customWidth="1"/>
+    <x:col min="16" max="16384" width="9.109375" style="2" customWidth="1"/>
   </x:cols>
   <x:sheetData>
-    <x:row r="1" spans="1:15" ht="20.1" customHeight="1" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <x:row r="1" spans="1:15" ht="20.1" customHeight="1" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <x:c r="A1" s="3" t="s">
         <x:v>0</x:v>
       </x:c>
@@ -669,7 +669,7 @@
         <x:v>14</x:v>
       </x:c>
     </x:row>
-    <x:row r="2" spans="1:15" ht="20.1" customHeight="1" x14ac:dyDescent="0.25">
+    <x:row r="2" spans="1:15" ht="20.1" customHeight="1" x14ac:dyDescent="0.3">
       <x:c r="A2" s="2" t="s">
         <x:v>15</x:v>
       </x:c>
